--- a/literature/priotity_review.xlsx
+++ b/literature/priotity_review.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbuonaiuto/Documents/git/seedpriorities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbuonaiuto/Documents/git/seedpriorities/literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CD5C87-D25D-9944-BF06-5CCE8C0F7FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="4640" windowWidth="27640" windowHeight="16160" activeTab="1"/>
+    <workbookView xWindow="1160" yWindow="980" windowWidth="27640" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="priority effects" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="100">
   <si>
     <t>study</t>
   </si>
@@ -109,12 +110,228 @@
   </si>
   <si>
     <t>Young2016</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>From Young 2017</t>
+  </si>
+  <si>
+    <t>Körner et al 2008</t>
+  </si>
+  <si>
+    <t>herbs</t>
+  </si>
+  <si>
+    <t>grasses and legumes</t>
+  </si>
+  <si>
+    <t>3 weeks</t>
+  </si>
+  <si>
+    <t>aboveground biomass</t>
+  </si>
+  <si>
+    <t>one year</t>
+  </si>
+  <si>
+    <t>outdoor pots</t>
+  </si>
+  <si>
+    <t>Strong priority</t>
+  </si>
+  <si>
+    <t>grasses</t>
+  </si>
+  <si>
+    <t>herbs and legumes</t>
+  </si>
+  <si>
+    <t>legumes</t>
+  </si>
+  <si>
+    <t>grasses and forbs</t>
+  </si>
+  <si>
+    <t>Citation</t>
+  </si>
+  <si>
+    <t>Early species/ guild</t>
+  </si>
+  <si>
+    <t>Late species/ guild</t>
+  </si>
+  <si>
+    <t>Priority length</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Study duration</t>
+  </si>
+  <si>
+    <t>Study type</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Kardol et al 2013</t>
+  </si>
+  <si>
+    <t>mixed groups of grasses and forbs</t>
+  </si>
+  <si>
+    <t>5 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 and a half months</t>
+  </si>
+  <si>
+    <t>greenhouse</t>
+  </si>
+  <si>
+    <t>weak priority</t>
+  </si>
+  <si>
+    <t>10 days</t>
+  </si>
+  <si>
+    <t>3 and a half months</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>15 days</t>
+  </si>
+  <si>
+    <t>strong priority</t>
+  </si>
+  <si>
+    <t>20 days</t>
+  </si>
+  <si>
+    <t>Stevens and Fehmi 2011</t>
+  </si>
+  <si>
+    <t>Native perennial grass</t>
+  </si>
+  <si>
+    <t>invasive perennial grass</t>
+  </si>
+  <si>
+    <t>80 days</t>
+  </si>
+  <si>
+    <t>Dickson et al 2012</t>
+  </si>
+  <si>
+    <t>native species (grass and forbs)</t>
+  </si>
+  <si>
+    <t>native and invasive species</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>3 months</t>
+  </si>
+  <si>
+    <t>invasive species (grass and forbs)</t>
+  </si>
+  <si>
+    <t>Perkins and Hatfield 2014</t>
+  </si>
+  <si>
+    <t>invasive grasses</t>
+  </si>
+  <si>
+    <t>native species</t>
+  </si>
+  <si>
+    <t>4 weeks</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>invasive annual grasses</t>
+  </si>
+  <si>
+    <t>Cleland et al 2015</t>
+  </si>
+  <si>
+    <t>exotics and natives</t>
+  </si>
+  <si>
+    <t>1 week</t>
+  </si>
+  <si>
+    <t>7-8 weeks</t>
+  </si>
+  <si>
+    <t>outdoor pots with water</t>
+  </si>
+  <si>
+    <t>3/4 show priority, depends somewhat on identity of competitor</t>
+  </si>
+  <si>
+    <t>exotic species</t>
+  </si>
+  <si>
+    <t>No priority overall, depends on identity of competitor</t>
+  </si>
+  <si>
+    <t>Vaughn &amp; Young 2015</t>
+  </si>
+  <si>
+    <t>Perennial grasses</t>
+  </si>
+  <si>
+    <t>Invasive annual grasses</t>
+  </si>
+  <si>
+    <t>Cover, density</t>
+  </si>
+  <si>
+    <t>3 years</t>
+  </si>
+  <si>
+    <t>Strong priority, more obvious with time</t>
+  </si>
+  <si>
+    <t>Young et al. 2015</t>
+  </si>
+  <si>
+    <t>Cover</t>
+  </si>
+  <si>
+    <t>6 months</t>
+  </si>
+  <si>
+    <t>Strong priority, contingent on rain, site</t>
+  </si>
+  <si>
+    <t>This paper</t>
+  </si>
+  <si>
+    <t>Native grasses</t>
+  </si>
+  <si>
+    <t>Exotic grasses</t>
+  </si>
+  <si>
+    <t>4 years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -474,25 +691,505 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,6 +1312,11 @@
         <v>26</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
